--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_8_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_8_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30393.51812441868</v>
+        <v>6048310.106759318</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30393.51812441868</v>
+        <v>6048310.106759318</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10427.19042668279</v>
+        <v>625631.4256009673</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10427.19042668279</v>
+        <v>625631.4256009673</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1188849976.745754</v>
+        <v>48090225.66031694</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10314.54452772913</v>
+        <v>1077323.915447521</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20017.59416904274</v>
+        <v>2053341.121705281</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29720.64381035633</v>
+        <v>3029358.327963043</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39922.55224490765</v>
+        <v>3973346.129538088</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50124.46067945894</v>
+        <v>4917333.931113132</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>59956.27611185214</v>
+        <v>5893365.523366274</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>69788.01925281128</v>
+        <v>6869382.729624032</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80453.11229608989</v>
+        <v>7879980.895451067</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90491.42557028942</v>
+        <v>8788994.059769124</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>100703.2680344235</v>
+        <v>9732539.532884164</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>110522.1618005283</v>
+        <v>10708556.73914193</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>120341.0555666331</v>
+        <v>11684573.94539969</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>130159.9493327379</v>
+        <v>12660591.15165746</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>140371.791796872</v>
+        <v>13604136.62477251</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>150583.6342610061</v>
+        <v>14547682.09788756</v>
       </c>
     </row>
   </sheetData>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
